--- a/config/spt2back/spt2back_run1.xlsx
+++ b/config/spt2back/spt2back_run1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="68" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="170" uniqueCount="7">
   <si>
     <t>trial</t>
   </si>
@@ -116,7 +116,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -130,7 +130,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -141,10 +141,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -155,10 +155,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -169,10 +169,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="0">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -186,7 +186,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -200,7 +200,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -211,10 +211,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -225,10 +225,10 @@
         <v>16</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="0">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -239,10 +239,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -253,10 +253,10 @@
         <v>20</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -267,7 +267,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="0">
         <v>7</v>
@@ -284,7 +284,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -295,10 +295,10 @@
         <v>26</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -312,7 +312,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -323,10 +323,10 @@
         <v>30</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -340,7 +340,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -351,10 +351,10 @@
         <v>34</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -365,10 +365,10 @@
         <v>36</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" s="0">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -382,7 +382,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="0">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -396,7 +396,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -410,7 +410,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -424,7 +424,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="0">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -435,10 +435,10 @@
         <v>46</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" s="0">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -452,7 +452,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="0">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -463,10 +463,10 @@
         <v>50</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -477,10 +477,10 @@
         <v>52</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" s="0">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -491,10 +491,10 @@
         <v>54</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" s="0">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -508,7 +508,7 @@
         <v>5</v>
       </c>
       <c r="D30" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -522,7 +522,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="0">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
